--- a/datatest/datatesting.xlsx
+++ b/datatest/datatesting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kazakimaru\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kazakimaru\IdeaProjects\API-Testing-Rest-Assured-Java\datatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28BC55B9-6DA8-4B20-89A1-F0460B09934A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B347A18A-35F0-404C-BF9D-6183D68F8FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{164DB088-93D1-4B68-86FE-D35F88C98C8A}"/>
   </bookViews>
@@ -45,30 +45,6 @@
     <t>PHONE</t>
   </si>
   <si>
-    <t>1passawdjwa0</t>
-  </si>
-  <si>
-    <t>1passawdjwa1</t>
-  </si>
-  <si>
-    <t>1passawdjwa2</t>
-  </si>
-  <si>
-    <t>1passawdjwa3</t>
-  </si>
-  <si>
-    <t>deoanwadaw-d1</t>
-  </si>
-  <si>
-    <t>deoanwadaw-d2</t>
-  </si>
-  <si>
-    <t>deoanwadaw-d3</t>
-  </si>
-  <si>
-    <t>deoanwadaw-d4</t>
-  </si>
-  <si>
     <t>1mail1@mail.com</t>
   </si>
   <si>
@@ -81,28 +57,52 @@
     <t>4mail1@mail.com</t>
   </si>
   <si>
-    <t>aowdjapodja1</t>
-  </si>
-  <si>
-    <t>aowdjapodja2</t>
-  </si>
-  <si>
-    <t>aowdjapodja3</t>
-  </si>
-  <si>
-    <t>aowdjapodja4</t>
-  </si>
-  <si>
-    <t>belajangiawi0ad1</t>
-  </si>
-  <si>
-    <t>belajangiawi0ad2</t>
-  </si>
-  <si>
-    <t>belajangiawi0ad3</t>
-  </si>
-  <si>
-    <t>belajangiawi0ad4</t>
+    <t>uname1</t>
+  </si>
+  <si>
+    <t>uname2</t>
+  </si>
+  <si>
+    <t>uname3</t>
+  </si>
+  <si>
+    <t>uname4</t>
+  </si>
+  <si>
+    <t>password1</t>
+  </si>
+  <si>
+    <t>password2</t>
+  </si>
+  <si>
+    <t>password3</t>
+  </si>
+  <si>
+    <t>password4</t>
+  </si>
+  <si>
+    <t>lastname1</t>
+  </si>
+  <si>
+    <t>lastname2</t>
+  </si>
+  <si>
+    <t>lastname3</t>
+  </si>
+  <si>
+    <t>lastname4</t>
+  </si>
+  <si>
+    <t>firstname1</t>
+  </si>
+  <si>
+    <t>firstname2</t>
+  </si>
+  <si>
+    <t>firstname3</t>
+  </si>
+  <si>
+    <t>firstname4</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,16 +509,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -529,16 +529,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
@@ -549,16 +549,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
@@ -569,16 +569,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>

--- a/datatest/datatesting.xlsx
+++ b/datatest/datatesting.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kazakimaru\IdeaProjects\API-Testing-Rest-Assured-Java\datatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B347A18A-35F0-404C-BF9D-6183D68F8FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F7999E-4908-4711-9482-41D4785394D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{164DB088-93D1-4B68-86FE-D35F88C98C8A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{164DB088-93D1-4B68-86FE-D35F88C98C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ForUpdate" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>USERNAME</t>
   </si>
@@ -103,6 +104,66 @@
   </si>
   <si>
     <t>firstname4</t>
+  </si>
+  <si>
+    <t>unamebaru1</t>
+  </si>
+  <si>
+    <t>unamebaru2</t>
+  </si>
+  <si>
+    <t>unamebaru3</t>
+  </si>
+  <si>
+    <t>unamebaru4</t>
+  </si>
+  <si>
+    <t>newpassword1</t>
+  </si>
+  <si>
+    <t>newpassword2</t>
+  </si>
+  <si>
+    <t>newpassword3</t>
+  </si>
+  <si>
+    <t>newpassword4</t>
+  </si>
+  <si>
+    <t>new1mail1@mail.com</t>
+  </si>
+  <si>
+    <t>new2mail1@mail.com</t>
+  </si>
+  <si>
+    <t>new3mail1@mail.com</t>
+  </si>
+  <si>
+    <t>new4mail1@mail.com</t>
+  </si>
+  <si>
+    <t>NEWlastname1</t>
+  </si>
+  <si>
+    <t>NeWfirstname1</t>
+  </si>
+  <si>
+    <t>NEWlastname2</t>
+  </si>
+  <si>
+    <t>NEWlastname3</t>
+  </si>
+  <si>
+    <t>NEWlastname4</t>
+  </si>
+  <si>
+    <t>NeWfirstname2</t>
+  </si>
+  <si>
+    <t>NeWfirstname3</t>
+  </si>
+  <si>
+    <t>NeWfirstname4</t>
   </si>
 </sst>
 </file>
@@ -473,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39397968-1A44-46BF-AF3F-28E1FF99F6FA}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,4 +658,134 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB872D0-941E-43F3-8270-00A0D89705C8}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2">
+        <v>62923821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3">
+        <v>62923822</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4">
+        <v>62923823</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5">
+        <v>62923824</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{A236A94E-F6AB-4B05-A62D-CAF85F318CD4}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{7631007B-9F53-496E-A7CF-36D68E23903E}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{6CE52F38-D425-4FDB-B55C-49926AF4C149}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{D8B3AC66-2C59-478E-807B-24351C8E1821}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>